--- a/i_codebooks/D5_Table_5_IR_ImmDis_stratum.xlsx
+++ b/i_codebooks/D5_Table_5_IR_ImmDis_stratum.xlsx
@@ -439,9 +439,6 @@
     <t>allgender-18</t>
   </si>
   <si>
-    <t>allgender-65</t>
-  </si>
-  <si>
     <t>Males</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
   </si>
   <si>
     <t>18-59</t>
-  </si>
-  <si>
-    <t>65+</t>
   </si>
   <si>
     <t>strata_IR</t>
@@ -585,6 +579,12 @@
 allgender-0
 allgender-18
 </t>
+  </si>
+  <si>
+    <t>allgender-60</t>
+  </si>
+  <si>
+    <t>60+</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -1376,7 +1376,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1411,7 +1411,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1444,7 +1444,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1477,7 +1477,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1510,7 +1510,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -1543,7 +1543,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -1648,12 +1648,12 @@
         <v>96</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>128</v>
@@ -1683,12 +1683,12 @@
         <v>97</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>128</v>
@@ -1718,12 +1718,12 @@
         <v>95</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>128</v>
@@ -1753,12 +1753,12 @@
         <v>109</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>128</v>
@@ -1795,7 +1795,7 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>128</v>
@@ -1832,7 +1832,7 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>128</v>
@@ -1864,7 +1864,7 @@
         <v>100</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -1897,7 +1897,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -1930,7 +1930,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -2035,12 +2035,12 @@
         <v>101</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>128</v>
@@ -2070,12 +2070,12 @@
         <v>102</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>128</v>
@@ -2105,12 +2105,12 @@
         <v>103</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>128</v>
@@ -2140,12 +2140,12 @@
         <v>114</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>128</v>
@@ -2182,7 +2182,7 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>128</v>
@@ -2219,7 +2219,7 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>128</v>
@@ -2251,7 +2251,7 @@
         <v>105</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -2284,7 +2284,7 @@
         <v>73</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -2317,7 +2317,7 @@
         <v>77</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -2422,7 +2422,7 @@
         <v>106</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -2455,12 +2455,12 @@
         <v>107</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>128</v>
@@ -2490,12 +2490,12 @@
         <v>108</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>128</v>
@@ -2525,12 +2525,12 @@
         <v>117</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>128</v>
@@ -2567,7 +2567,7 @@
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>128</v>
@@ -2604,7 +2604,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>128</v>
@@ -2637,7 +2637,7 @@
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>128</v>
@@ -2849,7 +2849,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3029,10 +3029,10 @@
         <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3057,10 +3057,10 @@
         <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3071,10 +3071,10 @@
         <v>132</v>
       </c>
       <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
         <v>137</v>
-      </c>
-      <c r="D15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3082,13 +3082,13 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.6">
       <c r="A2" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>36</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.6">
       <c r="A3" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>63</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.6">
       <c r="A4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>69</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.6">
       <c r="A5" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>99</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.6">
       <c r="A6" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>67</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.6">
       <c r="A7" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>64</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.6">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>71</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.6">
       <c r="A9" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>96</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.6">
       <c r="A10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>97</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.6">
       <c r="A11" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>95</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.6">
       <c r="A12" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>98</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.6">
       <c r="A13" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>100</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.6">
       <c r="A14" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>68</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.6">
       <c r="A15" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>65</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.6">
       <c r="A16" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>70</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.6">
       <c r="A17" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>101</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>102</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.6">
       <c r="A19" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>103</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.6">
       <c r="A20" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>104</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.6">
       <c r="A21" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>105</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.6">
       <c r="A22" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>72</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.6">
       <c r="A23" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>73</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.6">
       <c r="A24" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>74</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.6">
       <c r="A25" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>106</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="26" spans="1:2" ht="30.6">
       <c r="A26" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>107</v>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.6">
       <c r="A27" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>108</v>
@@ -3359,27 +3359,27 @@
     </row>
     <row r="36" spans="1:1" ht="15.6">
       <c r="A36" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.6">
       <c r="A37" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.6">
       <c r="A38" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.6">
       <c r="A39" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.6">
       <c r="A40" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/i_codebooks/D5_Table_5_IR_ImmDis_stratum.xlsx
+++ b/i_codebooks/D5_Table_5_IR_ImmDis_stratum.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\ROC18_Objective_2\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7229B3BC-96ED-4A21-A046-8B91917DF1A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="182">
   <si>
     <t>metadata_content</t>
   </si>
@@ -586,11 +587,14 @@
   <si>
     <t>60+</t>
   </si>
+  <si>
+    <t>empty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -858,7 +862,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1135,17 +1139,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1232,33 +1236,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E23" sqref="E23:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="25"/>
+    <col min="1" max="1" width="8.7109375" style="25"/>
     <col min="2" max="2" width="133" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="42.21875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="25"/>
+    <col min="9" max="9" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6">
+    <row r="1" spans="1:23" ht="15.75">
       <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +1309,7 @@
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
     </row>
-    <row r="2" spans="1:23" ht="187.2">
+    <row r="2" spans="1:23" ht="189">
       <c r="A2" s="23" t="s">
         <v>37</v>
       </c>
@@ -1336,7 +1340,7 @@
       <c r="V2" s="24"/>
       <c r="W2" s="24"/>
     </row>
-    <row r="3" spans="1:23" s="29" customFormat="1" ht="15.6">
+    <row r="3" spans="1:23" s="29" customFormat="1" ht="15.75">
       <c r="A3" s="27" t="s">
         <v>36</v>
       </c>
@@ -1371,7 +1375,7 @@
       <c r="V3" s="27"/>
       <c r="W3" s="27"/>
     </row>
-    <row r="4" spans="1:23" s="29" customFormat="1" ht="15.6">
+    <row r="4" spans="1:23" s="29" customFormat="1" ht="15.75">
       <c r="A4" s="27" t="s">
         <v>63</v>
       </c>
@@ -1406,7 +1410,7 @@
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
     </row>
-    <row r="5" spans="1:23" s="29" customFormat="1" ht="15.6">
+    <row r="5" spans="1:23" s="29" customFormat="1" ht="15.75">
       <c r="A5" s="27" t="s">
         <v>69</v>
       </c>
@@ -1439,7 +1443,7 @@
       <c r="V5" s="27"/>
       <c r="W5" s="27"/>
     </row>
-    <row r="6" spans="1:23" s="29" customFormat="1" ht="15.6">
+    <row r="6" spans="1:23" s="29" customFormat="1" ht="15.75">
       <c r="A6" s="27" t="s">
         <v>66</v>
       </c>
@@ -1472,7 +1476,7 @@
       <c r="V6" s="27"/>
       <c r="W6" s="27"/>
     </row>
-    <row r="7" spans="1:23" ht="15.6">
+    <row r="7" spans="1:23" ht="15.75">
       <c r="A7" s="24" t="s">
         <v>67</v>
       </c>
@@ -1505,7 +1509,7 @@
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
     </row>
-    <row r="8" spans="1:23" ht="15.6">
+    <row r="8" spans="1:23" ht="15.75">
       <c r="A8" s="24" t="s">
         <v>64</v>
       </c>
@@ -1538,7 +1542,7 @@
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
     </row>
-    <row r="9" spans="1:23" ht="15.6">
+    <row r="9" spans="1:23" ht="15.75">
       <c r="A9" s="24" t="s">
         <v>75</v>
       </c>
@@ -1573,7 +1577,7 @@
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
     </row>
-    <row r="10" spans="1:23" ht="15.6">
+    <row r="10" spans="1:23" ht="15.75">
       <c r="A10" s="24" t="s">
         <v>78</v>
       </c>
@@ -1608,7 +1612,7 @@
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="1:23" ht="15.6">
+    <row r="11" spans="1:23" ht="15.75">
       <c r="A11" s="24" t="s">
         <v>80</v>
       </c>
@@ -1643,7 +1647,7 @@
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
     </row>
-    <row r="12" spans="1:23" ht="78">
+    <row r="12" spans="1:23" ht="78.75">
       <c r="A12" s="24" t="s">
         <v>96</v>
       </c>
@@ -1678,7 +1682,7 @@
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:23" ht="78">
+    <row r="13" spans="1:23" ht="78.75">
       <c r="A13" s="24" t="s">
         <v>97</v>
       </c>
@@ -1713,7 +1717,7 @@
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
     </row>
-    <row r="14" spans="1:23" ht="78">
+    <row r="14" spans="1:23" ht="78.75">
       <c r="A14" s="24" t="s">
         <v>95</v>
       </c>
@@ -1748,7 +1752,7 @@
       <c r="V14" s="24"/>
       <c r="W14" s="24"/>
     </row>
-    <row r="15" spans="1:23" ht="78">
+    <row r="15" spans="1:23" ht="78.75">
       <c r="A15" s="24" t="s">
         <v>109</v>
       </c>
@@ -1785,7 +1789,7 @@
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
     </row>
-    <row r="16" spans="1:23" ht="78">
+    <row r="16" spans="1:23" ht="78.75">
       <c r="A16" s="24" t="s">
         <v>110</v>
       </c>
@@ -1822,7 +1826,7 @@
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
     </row>
-    <row r="17" spans="1:23" ht="78">
+    <row r="17" spans="1:23" ht="78.75">
       <c r="A17" s="24" t="s">
         <v>111</v>
       </c>
@@ -1859,7 +1863,7 @@
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
     </row>
-    <row r="18" spans="1:23" s="29" customFormat="1" ht="15.6">
+    <row r="18" spans="1:23" s="29" customFormat="1" ht="15.75">
       <c r="A18" s="27" t="s">
         <v>100</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
     </row>
-    <row r="19" spans="1:23" s="29" customFormat="1" ht="15.6">
+    <row r="19" spans="1:23" s="29" customFormat="1" ht="15.75">
       <c r="A19" s="27" t="s">
         <v>65</v>
       </c>
@@ -1925,7 +1929,7 @@
       <c r="V19" s="27"/>
       <c r="W19" s="27"/>
     </row>
-    <row r="20" spans="1:23" s="29" customFormat="1" ht="15.6">
+    <row r="20" spans="1:23" s="29" customFormat="1" ht="15.75">
       <c r="A20" s="27" t="s">
         <v>76</v>
       </c>
@@ -1960,7 +1964,7 @@
       <c r="V20" s="27"/>
       <c r="W20" s="27"/>
     </row>
-    <row r="21" spans="1:23" s="29" customFormat="1" ht="15.6">
+    <row r="21" spans="1:23" s="29" customFormat="1" ht="15.75">
       <c r="A21" s="27" t="s">
         <v>79</v>
       </c>
@@ -1995,7 +1999,7 @@
       <c r="V21" s="27"/>
       <c r="W21" s="27"/>
     </row>
-    <row r="22" spans="1:23" s="29" customFormat="1" ht="15.6">
+    <row r="22" spans="1:23" s="29" customFormat="1" ht="15.75">
       <c r="A22" s="27" t="s">
         <v>86</v>
       </c>
@@ -2030,7 +2034,7 @@
       <c r="V22" s="27"/>
       <c r="W22" s="27"/>
     </row>
-    <row r="23" spans="1:23" s="29" customFormat="1" ht="78">
+    <row r="23" spans="1:23" s="29" customFormat="1" ht="78.75">
       <c r="A23" s="27" t="s">
         <v>101</v>
       </c>
@@ -2065,7 +2069,7 @@
       <c r="V23" s="27"/>
       <c r="W23" s="27"/>
     </row>
-    <row r="24" spans="1:23" s="29" customFormat="1" ht="78">
+    <row r="24" spans="1:23" s="29" customFormat="1" ht="78.75">
       <c r="A24" s="27" t="s">
         <v>102</v>
       </c>
@@ -2100,7 +2104,7 @@
       <c r="V24" s="27"/>
       <c r="W24" s="27"/>
     </row>
-    <row r="25" spans="1:23" s="29" customFormat="1" ht="78">
+    <row r="25" spans="1:23" s="29" customFormat="1" ht="78.75">
       <c r="A25" s="27" t="s">
         <v>103</v>
       </c>
@@ -2135,7 +2139,7 @@
       <c r="V25" s="27"/>
       <c r="W25" s="27"/>
     </row>
-    <row r="26" spans="1:23" s="29" customFormat="1" ht="78">
+    <row r="26" spans="1:23" s="29" customFormat="1" ht="78.75">
       <c r="A26" s="27" t="s">
         <v>114</v>
       </c>
@@ -2172,7 +2176,7 @@
       <c r="V26" s="27"/>
       <c r="W26" s="27"/>
     </row>
-    <row r="27" spans="1:23" s="29" customFormat="1" ht="78">
+    <row r="27" spans="1:23" s="29" customFormat="1" ht="78.75">
       <c r="A27" s="27" t="s">
         <v>115</v>
       </c>
@@ -2209,7 +2213,7 @@
       <c r="V27" s="27"/>
       <c r="W27" s="27"/>
     </row>
-    <row r="28" spans="1:23" s="29" customFormat="1" ht="78">
+    <row r="28" spans="1:23" s="29" customFormat="1" ht="78.75">
       <c r="A28" s="27" t="s">
         <v>116</v>
       </c>
@@ -2246,7 +2250,7 @@
       <c r="V28" s="27"/>
       <c r="W28" s="27"/>
     </row>
-    <row r="29" spans="1:23" ht="15.6">
+    <row r="29" spans="1:23" ht="15.75">
       <c r="A29" s="24" t="s">
         <v>105</v>
       </c>
@@ -2279,7 +2283,7 @@
       <c r="V29" s="24"/>
       <c r="W29" s="24"/>
     </row>
-    <row r="30" spans="1:23" ht="15.6">
+    <row r="30" spans="1:23" ht="15.75">
       <c r="A30" s="24" t="s">
         <v>73</v>
       </c>
@@ -2312,7 +2316,7 @@
       <c r="V30" s="24"/>
       <c r="W30" s="24"/>
     </row>
-    <row r="31" spans="1:23" ht="15.6">
+    <row r="31" spans="1:23" ht="15.75">
       <c r="A31" s="24" t="s">
         <v>77</v>
       </c>
@@ -2347,7 +2351,7 @@
       <c r="V31" s="24"/>
       <c r="W31" s="24"/>
     </row>
-    <row r="32" spans="1:23" ht="15.6">
+    <row r="32" spans="1:23" ht="15.75">
       <c r="A32" s="24" t="s">
         <v>89</v>
       </c>
@@ -2382,7 +2386,7 @@
       <c r="V32" s="24"/>
       <c r="W32" s="24"/>
     </row>
-    <row r="33" spans="1:23" ht="15.6">
+    <row r="33" spans="1:23" ht="15.75">
       <c r="A33" s="24" t="s">
         <v>90</v>
       </c>
@@ -2417,7 +2421,7 @@
       <c r="V33" s="24"/>
       <c r="W33" s="24"/>
     </row>
-    <row r="34" spans="1:23" ht="15.6">
+    <row r="34" spans="1:23" ht="15.75">
       <c r="A34" s="24" t="s">
         <v>106</v>
       </c>
@@ -2450,7 +2454,7 @@
       <c r="V34" s="24"/>
       <c r="W34" s="24"/>
     </row>
-    <row r="35" spans="1:23" ht="78">
+    <row r="35" spans="1:23" ht="78.75">
       <c r="A35" s="24" t="s">
         <v>107</v>
       </c>
@@ -2485,7 +2489,7 @@
       <c r="V35" s="24"/>
       <c r="W35" s="24"/>
     </row>
-    <row r="36" spans="1:23" ht="78">
+    <row r="36" spans="1:23" ht="78.75">
       <c r="A36" s="24" t="s">
         <v>108</v>
       </c>
@@ -2520,7 +2524,7 @@
       <c r="V36" s="24"/>
       <c r="W36" s="24"/>
     </row>
-    <row r="37" spans="1:23" ht="78">
+    <row r="37" spans="1:23" ht="78.75">
       <c r="A37" s="24" t="s">
         <v>117</v>
       </c>
@@ -2557,7 +2561,7 @@
       <c r="V37" s="24"/>
       <c r="W37" s="24"/>
     </row>
-    <row r="38" spans="1:23" ht="78">
+    <row r="38" spans="1:23" ht="78.75">
       <c r="A38" s="24" t="s">
         <v>118</v>
       </c>
@@ -2594,7 +2598,7 @@
       <c r="V38" s="24"/>
       <c r="W38" s="24"/>
     </row>
-    <row r="39" spans="1:23" ht="78">
+    <row r="39" spans="1:23" ht="78.75">
       <c r="A39" s="24" t="s">
         <v>119</v>
       </c>
@@ -2631,7 +2635,7 @@
       <c r="V39" s="24"/>
       <c r="W39" s="24"/>
     </row>
-    <row r="40" spans="1:23" ht="78">
+    <row r="40" spans="1:23" ht="78.75">
       <c r="A40" s="24"/>
       <c r="B40" s="30"/>
       <c r="C40" s="24"/>
@@ -2660,7 +2664,7 @@
       <c r="V40" s="24"/>
       <c r="W40" s="24"/>
     </row>
-    <row r="41" spans="1:23" ht="15.6">
+    <row r="41" spans="1:23" ht="15.75">
       <c r="A41" s="24"/>
       <c r="B41" s="35"/>
       <c r="C41" s="24"/>
@@ -2685,7 +2689,7 @@
       <c r="V41" s="24"/>
       <c r="W41" s="24"/>
     </row>
-    <row r="42" spans="1:23" ht="15.6">
+    <row r="42" spans="1:23" ht="15.75">
       <c r="A42" s="24"/>
       <c r="B42" s="32"/>
       <c r="C42" s="24"/>
@@ -2710,7 +2714,7 @@
       <c r="V42" s="24"/>
       <c r="W42" s="24"/>
     </row>
-    <row r="43" spans="1:23" ht="15.6">
+    <row r="43" spans="1:23" ht="15.75">
       <c r="A43" s="24"/>
       <c r="B43" s="35"/>
       <c r="C43" s="24"/>
@@ -2735,7 +2739,7 @@
       <c r="V43" s="24"/>
       <c r="W43" s="24"/>
     </row>
-    <row r="44" spans="1:23" ht="15.6">
+    <row r="44" spans="1:23" ht="15.75">
       <c r="A44" s="24"/>
       <c r="B44" s="32"/>
       <c r="C44" s="24"/>
@@ -2760,7 +2764,7 @@
       <c r="V44" s="24"/>
       <c r="W44" s="24"/>
     </row>
-    <row r="45" spans="1:23" ht="15.6">
+    <row r="45" spans="1:23" ht="15.75">
       <c r="A45" s="24"/>
       <c r="B45" s="35"/>
       <c r="C45" s="24"/>
@@ -2785,7 +2789,7 @@
       <c r="V45" s="24"/>
       <c r="W45" s="24"/>
     </row>
-    <row r="46" spans="1:23" ht="15.6">
+    <row r="46" spans="1:23" ht="15.75">
       <c r="A46" s="24"/>
       <c r="B46" s="32"/>
       <c r="C46" s="24"/>
@@ -2810,7 +2814,7 @@
       <c r="V46" s="24"/>
       <c r="W46" s="24"/>
     </row>
-    <row r="47" spans="1:23" ht="15.6">
+    <row r="47" spans="1:23" ht="15.75">
       <c r="A47" s="24"/>
       <c r="B47" s="35"/>
       <c r="C47" s="24"/>
@@ -2845,20 +2849,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3097,20 +3101,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="141.77734375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="141.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="15"/>
       <c r="B1" s="13" t="s">
         <v>93</v>
@@ -3146,7 +3150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>138</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>139</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="7" t="s">
         <v>140</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="9" t="s">
         <v>141</v>
       </c>
@@ -3178,7 +3182,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="9" t="s">
         <v>142</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="9" t="s">
         <v>143</v>
       </c>
@@ -3194,7 +3198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="11" t="s">
         <v>144</v>
       </c>
@@ -3202,7 +3206,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="12" t="s">
         <v>145</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6">
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="7" t="s">
         <v>146</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="9" t="s">
         <v>147</v>
       </c>
@@ -3226,7 +3230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="11" t="s">
         <v>148</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="12" t="s">
         <v>149</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="9" t="s">
         <v>150</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="7" t="s">
         <v>151</v>
       </c>
@@ -3258,7 +3262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="11" t="s">
         <v>163</v>
       </c>
@@ -3266,7 +3270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6">
+    <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="18" t="s">
         <v>164</v>
       </c>
@@ -3274,7 +3278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6">
+    <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="7" t="s">
         <v>153</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6">
+    <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="9" t="s">
         <v>152</v>
       </c>
@@ -3290,7 +3294,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6">
+    <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="11" t="s">
         <v>154</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6">
+    <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="12" t="s">
         <v>155</v>
       </c>
@@ -3306,7 +3310,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6">
+    <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="9" t="s">
         <v>156</v>
       </c>
@@ -3314,7 +3318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6">
+    <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="7" t="s">
         <v>157</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6">
+    <row r="24" spans="1:2" ht="15.75">
       <c r="A24" s="19" t="s">
         <v>165</v>
       </c>
@@ -3330,7 +3334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6">
+    <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="18" t="s">
         <v>166</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30.6">
+    <row r="26" spans="1:2" ht="30.75">
       <c r="A26" s="16" t="s">
         <v>167</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6">
+    <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="17" t="s">
         <v>168</v>
       </c>
@@ -3354,30 +3358,30 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6">
+    <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="10"/>
     </row>
-    <row r="36" spans="1:1" ht="15.6">
+    <row r="36" spans="1:1" ht="15.75">
       <c r="A36" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.6">
+    <row r="37" spans="1:1" ht="15.75">
       <c r="A37" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.6">
+    <row r="38" spans="1:1" ht="15.75">
       <c r="A38" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.6">
+    <row r="39" spans="1:1" ht="15.75">
       <c r="A39" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.6">
+    <row r="40" spans="1:1" ht="15.75">
       <c r="A40" s="9" t="s">
         <v>162</v>
       </c>
@@ -3389,17 +3393,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="82.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="82.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
